--- a/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 6,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,0; 112,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,56; 81,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,11; 87,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 72,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 0,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 0,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,17; 24,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,63; 62,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,25; 93,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,32; 57,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; -0,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 1,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,65; -4,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,67; 45,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,14; 133,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,75; 32,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 1,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,95; -0,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,63; 46,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,59; 71,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 64,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,84</t>
+          <t>-0,76; 1,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,5</t>
+          <t>-0,74; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,27</t>
+          <t>-1,04; 3,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,44</t>
+          <t>0,8; 6,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 112,37</t>
+          <t>-26,19; 106,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 81,66</t>
+          <t>-12,37; 79,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 87,18</t>
+          <t>-18,81; 90,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 72,32</t>
+          <t>6,21; 77,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,37</t>
+          <t>-1,52; 0,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,9</t>
+          <t>-0,95; 0,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,8</t>
+          <t>-0,69; 0,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,93</t>
+          <t>-1,08; 0,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,17; 24,26</t>
+          <t>-54,07; 33,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 62,81</t>
+          <t>-41,8; 67,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 93,66</t>
+          <t>-45,0; 85,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 57,92</t>
+          <t>-38,03; 57,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -0,47</t>
+          <t>-8,15; -0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,08</t>
+          <t>-4,57; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,55</t>
+          <t>-1,8; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,81</t>
+          <t>-3,69; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,65; -4,39</t>
+          <t>-55,83; -3,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 45,54</t>
+          <t>-44,55; 43,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 133,41</t>
+          <t>-35,44; 128,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 32,55</t>
+          <t>-40,01; 36,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; -0,01</t>
+          <t>-1,77; -0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,56</t>
+          <t>-0,26; 1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,45</t>
+          <t>-0,29; 1,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,31</t>
+          <t>-0,17; 2,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -0,83</t>
+          <t>-39,46; 1,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 46,9</t>
+          <t>-6,62; 50,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 71,86</t>
+          <t>-9,9; 67,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 64,54</t>
+          <t>-2,91; 65,06</t>
         </is>
       </c>
     </row>
